--- a/www/ig/fhir/core/StructureDefinition-fr-core-encounter.xlsx
+++ b/www/ig/fhir/core/StructureDefinition-fr-core-encounter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T09:47:43+01:00</t>
+    <t>2024-02-20T11:21:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/core/StructureDefinition-fr-core-encounter.xlsx
+++ b/www/ig/fhir/core/StructureDefinition-fr-core-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T11:21:14+01:00</t>
+    <t>2024-02-20T11:36:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/core/StructureDefinition-fr-core-encounter.xlsx
+++ b/www/ig/fhir/core/StructureDefinition-fr-core-encounter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T11:36:44+01:00</t>
+    <t>2024-03-25T12:26:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This profil constrains the Encounter resource to represent either the patient visit or admission or the various movements that compose the patient stay. | Ce profil de la ressource Encounter sert à la fois à définir la venue dans l'établissement et à représenter les mouvements du patient qui découpent cette venue.</t>
+    <t>This profil constrains the Encounter resource to represent either the patient visit or admission or the various movements that compose the patient stay.
+Ce profil de la ressource Encounter sert à la fois à définir la venue dans l'établissement et à représenter les mouvements du patient qui découpent cette venue.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/www/ig/fhir/core/StructureDefinition-fr-core-encounter.xlsx
+++ b/www/ig/fhir/core/StructureDefinition-fr-core-encounter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T11:49:14+02:00</t>
+    <t>2024-09-04T10:06:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Interop'Santé (http://interopsante.org/)</t>
   </si>
   <si>
-    <t>InteropSanté (fhir@interopsante.org(WORK))</t>
+    <t>InteropSanté (fhir@interopsante.org(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
